--- a/Base/Teams/Ravens/Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C3">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="C3">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/Base/Teams/Ravens/Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="C3">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="C3">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Ravens/Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="C2">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="C2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>4</v>

--- a/Base/Teams/Ravens/Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="C3">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="C3">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Ravens/Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="C2">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Ravens/Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="C2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="C2">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
